--- a/data/FiskLab_stable-isotopes_biomass_data/Biomass_StableIsotopes data_CHeuvel_edited.xlsx
+++ b/data/FiskLab_stable-isotopes_biomass_data/Biomass_StableIsotopes data_CHeuvel_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://trentu-my.sharepoint.com/personal/sandraklemet_trentu_ca/Documents/Documents/Etudes/Trent/Xenopoulos lab/Projects/LakeErie_animal-excretion/data/FiskLab_stable-isotopes__biomass_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://trentu-my.sharepoint.com/personal/sandraklemet_trentu_ca/Documents/Documents/Etudes/Trent/Xenopoulos lab/Projects/LakeErie_animal-excretion/data/FiskLab_stable-isotopes_biomass_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{55752C12-F562-4B7D-A1A1-FB99C56ACF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A26463C7-1F2E-43A9-AD64-DDC986B517D7}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{55752C12-F562-4B7D-A1A1-FB99C56ACF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C16B6B8-545C-4DC4-A97D-C74B742149AD}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1140" yWindow="1140" windowWidth="14440" windowHeight="7300" xr2:uid="{062B1D82-E5B8-4B6C-AB2C-D46774B067F9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{062B1D82-E5B8-4B6C-AB2C-D46774B067F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Biomass Data" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="167">
   <si>
     <t>Biomass Kg/ha</t>
   </si>
@@ -538,6 +538,9 @@
   </si>
   <si>
     <t>19LE M 917</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -904,7 +907,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AB9DB4-04CE-40F2-8C4C-AF4C8D6FA91D}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
@@ -1134,6 +1137,11 @@
       </c>
       <c r="L13">
         <v>3.7049974805516597E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H14" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1150,7 +1158,7 @@
   <dimension ref="A1:T87"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S70" activeCellId="2" sqref="O70:O78 Q70:Q78 S70:S78"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/FiskLab_stable-isotopes_biomass_data/Biomass_StableIsotopes data_CHeuvel_edited.xlsx
+++ b/data/FiskLab_stable-isotopes_biomass_data/Biomass_StableIsotopes data_CHeuvel_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://trentu-my.sharepoint.com/personal/sandraklemet_trentu_ca/Documents/Documents/Etudes/Trent/Xenopoulos lab/Projects/LakeErie_animal-excretion/data/FiskLab_stable-isotopes_biomass_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{55752C12-F562-4B7D-A1A1-FB99C56ACF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C16B6B8-545C-4DC4-A97D-C74B742149AD}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="8_{55752C12-F562-4B7D-A1A1-FB99C56ACF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52A54908-22E1-456E-8E2F-E8C15605920E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{062B1D82-E5B8-4B6C-AB2C-D46774B067F9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{062B1D82-E5B8-4B6C-AB2C-D46774B067F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Biomass Data" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="172">
   <si>
     <t>Biomass Kg/ha</t>
   </si>
@@ -541,6 +541,21 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Mean_d13C</t>
+  </si>
+  <si>
+    <t>Mean_perC</t>
+  </si>
+  <si>
+    <t>Mean_perN</t>
+  </si>
+  <si>
+    <t>Mean_CN</t>
+  </si>
+  <si>
+    <t>Mean_d15N</t>
   </si>
 </sst>
 </file>
@@ -582,17 +597,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,9 +627,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -651,7 +667,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -757,7 +773,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -899,7 +915,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -909,7 +925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AB9DB4-04CE-40F2-8C4C-AF4C8D6FA91D}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -919,14 +935,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1155,82 +1171,100 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19452246-037F-4212-B304-B260F8BAD9ED}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:T87"/>
+  <dimension ref="A1:Y87"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23:Y23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="8.7265625" style="5"/>
+    <col min="10" max="10" width="35.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.7265625" style="5"/>
+    <col min="13" max="13" width="14.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+      <c r="U1" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>867</v>
       </c>
@@ -1286,7 +1320,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>515</v>
       </c>
@@ -1342,7 +1376,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>516</v>
       </c>
@@ -1398,7 +1432,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>517</v>
       </c>
@@ -1454,7 +1488,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>518</v>
       </c>
@@ -1510,7 +1544,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>519</v>
       </c>
@@ -1566,181 +1600,195 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
         <v>435</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="5">
         <v>107</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="5">
         <v>11.6</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="6">
         <v>43705</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="5">
         <v>-23.480379859999999</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="5">
         <v>44.942498649999997</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="5">
         <v>11.50440961</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="5">
         <v>14.150903189999999</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="5">
         <v>3.175945595</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="T8" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
+      <c r="U8" s="5">
+        <f>AVERAGE(P8:P22)</f>
+        <v>51.794115875333326</v>
+      </c>
+      <c r="V8" s="5">
+        <f>AVERAGE(R8:R22)</f>
+        <v>11.136419494933332</v>
+      </c>
+      <c r="W8" s="5">
+        <f>AVERAGE(S8:S22)</f>
+        <v>5.0821599532666664</v>
+      </c>
+      <c r="X8" s="5">
+        <f>AVERAGE(O8:O22)</f>
+        <v>-24.145373220666663</v>
+      </c>
+      <c r="Y8" s="5">
+        <f>AVERAGE(Q8:Q22)</f>
+        <v>11.343827143333334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
         <v>436</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="5">
         <v>130</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="5">
         <v>118</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="5">
         <v>21.6</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="6">
         <v>43705</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="5">
         <v>-24.30874549</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="5">
         <v>43.323799899999997</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="5">
         <v>10.85945626</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="5">
         <v>12.7768157</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="5">
         <v>3.390813557</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="T9" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
         <v>437</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="5">
         <v>136</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="5">
         <v>238.8</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="6">
         <v>43705</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="5">
         <v>-23.583802439999999</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="5">
         <v>44.376729159999996</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="5">
         <v>12.325439190000001</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="5">
         <v>14.06385596</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="5">
         <v>3.1553742640000002</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="T10" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>420</v>
       </c>
@@ -1799,7 +1847,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>759</v>
       </c>
@@ -1858,7 +1906,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>760</v>
       </c>
@@ -1917,7 +1965,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>761</v>
       </c>
@@ -1976,7 +2024,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>802</v>
       </c>
@@ -2035,7 +2083,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>803</v>
       </c>
@@ -2094,7 +2142,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>804</v>
       </c>
@@ -2153,7 +2201,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>316</v>
       </c>
@@ -2213,7 +2261,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>317</v>
       </c>
@@ -2271,7 +2319,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>318</v>
       </c>
@@ -2331,7 +2379,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>342</v>
       </c>
@@ -2391,7 +2439,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>784</v>
       </c>
@@ -2451,420 +2499,440 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
         <v>573</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="E23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="5">
         <v>133</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="5">
         <v>34.1</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="6">
         <v>43690</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="N23" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="5">
         <v>-23.17717442</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="5">
         <v>45.626076859999998</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="5">
         <v>10.95872088</v>
       </c>
-      <c r="R23" s="3">
+      <c r="R23" s="5">
         <v>13.441402050000001</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S23" s="5">
         <v>3.394443281</v>
       </c>
-      <c r="T23" s="3" t="s">
+      <c r="T23" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3">
+      <c r="U23" s="5">
+        <f>AVERAGE(P23:P35)</f>
+        <v>44.685359341538465</v>
+      </c>
+      <c r="V23" s="5">
+        <f>AVERAGE(R23:R35)</f>
+        <v>12.74586966153846</v>
+      </c>
+      <c r="W23" s="5">
+        <f>AVERAGE(S23:S35)</f>
+        <v>3.5071888453846158</v>
+      </c>
+      <c r="X23" s="5">
+        <f>AVERAGE(O23:O35)</f>
+        <v>-23.517025573076925</v>
+      </c>
+      <c r="Y23" s="5">
+        <f>AVERAGE(Q23:Q35)</f>
+        <v>12.132257426923079</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
         <v>574</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="E24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="5">
         <v>25</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="5">
         <v>0.2</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="6">
         <v>43690</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="N24" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="5">
         <v>-23.64859972</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="5">
         <v>41.52976658</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="5">
         <v>12.300470280000001</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R24" s="5">
         <v>11.705840889999999</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24" s="5">
         <v>3.5477815700000002</v>
       </c>
-      <c r="T24" s="3" t="s">
+      <c r="T24" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
         <v>575</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="3">
+      <c r="E25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="5">
         <v>37</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="5">
         <v>0.6</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="L25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="6">
         <v>43690</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="N25" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25" s="5">
         <v>-24.02062218</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25" s="5">
         <v>42.57560995</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="Q25" s="5">
         <v>11.68318616</v>
       </c>
-      <c r="R25" s="3">
+      <c r="R25" s="5">
         <v>12.200619639999999</v>
       </c>
-      <c r="S25" s="3">
+      <c r="S25" s="5">
         <v>3.4896268570000002</v>
       </c>
-      <c r="T25" s="3" t="s">
+      <c r="T25" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
         <v>576</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="E26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="5">
         <v>57</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="5">
         <v>2.4</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="6">
         <v>43690</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="N26" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="5">
         <v>-23.590532719999999</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="5">
         <v>45.141289139999998</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="5">
         <v>12.29947786</v>
       </c>
-      <c r="R26" s="3">
+      <c r="R26" s="5">
         <v>13.39168214</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26" s="5">
         <v>3.370845326</v>
       </c>
-      <c r="T26" s="3" t="s">
+      <c r="T26" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
         <v>577</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="E27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="5">
         <v>46</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="5">
         <v>1</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="6">
         <v>43690</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="N27" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="5">
         <v>-23.616121570000001</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="5">
         <v>43.545053369999998</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="5">
         <v>11.449967880000001</v>
       </c>
-      <c r="R27" s="3">
+      <c r="R27" s="5">
         <v>12.641960259999999</v>
       </c>
-      <c r="S27" s="3">
+      <c r="S27" s="5">
         <v>3.4444858599999999</v>
       </c>
-      <c r="T27" s="3" t="s">
+      <c r="T27" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
         <v>578</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="3">
+      <c r="E28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="5">
         <v>48</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="5">
         <v>1.3</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K28" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="L28" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28" s="6">
         <v>43690</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="N28" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O28" s="5">
         <v>-24.023574740000001</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P28" s="5">
         <v>43.297679789999997</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="Q28" s="5">
         <v>11.973964690000001</v>
       </c>
-      <c r="R28" s="3">
+      <c r="R28" s="5">
         <v>12.81878345</v>
       </c>
-      <c r="S28" s="3">
+      <c r="S28" s="5">
         <v>3.37767464</v>
       </c>
-      <c r="T28" s="3" t="s">
+      <c r="T28" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
         <v>579</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="E29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="5">
         <v>49</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="5">
         <v>1.6</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29" s="6">
         <v>43690</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="5">
         <v>-24.12593013</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="5">
         <v>45.66887603</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="5">
         <v>12.48803732</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="5">
         <v>12.848412639999999</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="5">
         <v>3.5544372129999999</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="T29" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>397</v>
       </c>
@@ -2924,7 +2992,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>707</v>
       </c>
@@ -2982,7 +3050,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>708</v>
       </c>
@@ -3040,7 +3108,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:20" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>709</v>
       </c>
@@ -3098,7 +3166,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>710</v>
       </c>
@@ -3156,7 +3224,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:20" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>711</v>
       </c>
@@ -3214,473 +3282,493 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
         <v>721</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" s="3">
+      <c r="E36" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="5">
         <v>136</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="5">
         <v>127</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="5">
         <v>38</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="K36" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="L36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M36" s="4">
+      <c r="M36" s="6">
         <v>43689</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="N36" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="O36" s="3">
+      <c r="O36" s="5">
         <v>-23.46392457</v>
       </c>
-      <c r="P36" s="3">
+      <c r="P36" s="5">
         <v>48.387730230000003</v>
       </c>
-      <c r="Q36" s="3">
+      <c r="Q36" s="5">
         <v>13.6533783</v>
       </c>
-      <c r="R36" s="3">
+      <c r="R36" s="5">
         <v>14.85303817</v>
       </c>
-      <c r="S36" s="3">
+      <c r="S36" s="5">
         <v>3.2577665040000001</v>
       </c>
-      <c r="T36" s="3" t="s">
+      <c r="T36" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="3">
+      <c r="U36" s="5">
+        <f>AVERAGE(P36:P48)</f>
+        <v>48.130241346153859</v>
+      </c>
+      <c r="V36" s="5">
+        <f>AVERAGE(R36:R48)</f>
+        <v>13.736281153307694</v>
+      </c>
+      <c r="W36" s="5">
+        <f>AVERAGE(S36:S48)</f>
+        <v>3.5897974680769233</v>
+      </c>
+      <c r="X36" s="5">
+        <f>AVERAGE(O36:O48)</f>
+        <v>-23.615299784615388</v>
+      </c>
+      <c r="Y36" s="5">
+        <f>AVERAGE(Q36:Q48)</f>
+        <v>12.931454542307693</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
         <v>722</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37" s="3">
+      <c r="E37" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="5">
         <v>147</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="5">
         <v>135</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="5">
         <v>50</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="K37" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="L37" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M37" s="4">
+      <c r="M37" s="6">
         <v>43689</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="N37" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="O37" s="3">
+      <c r="O37" s="5">
         <v>-23.579953140000001</v>
       </c>
-      <c r="P37" s="3">
+      <c r="P37" s="5">
         <v>48.145931959999999</v>
       </c>
-      <c r="Q37" s="3">
+      <c r="Q37" s="5">
         <v>13.2516865</v>
       </c>
-      <c r="R37" s="3">
+      <c r="R37" s="5">
         <v>14.62314237</v>
       </c>
-      <c r="S37" s="3">
+      <c r="S37" s="5">
         <v>3.2924477350000001</v>
       </c>
-      <c r="T37" s="3" t="s">
+      <c r="T37" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
         <v>798</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" s="3">
+      <c r="E38" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="5">
         <v>138</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="5">
         <v>130</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="5">
         <v>40</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="J38" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="K38" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="L38" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M38" s="4">
+      <c r="M38" s="6">
         <v>43689</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="N38" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O38" s="3">
+      <c r="O38" s="5">
         <v>-24.82197815</v>
       </c>
-      <c r="P38" s="3">
+      <c r="P38" s="5">
         <v>50.442654920000003</v>
       </c>
-      <c r="Q38" s="3">
+      <c r="Q38" s="5">
         <v>13.55605458</v>
       </c>
-      <c r="R38" s="3">
+      <c r="R38" s="5">
         <v>13.864247049999999</v>
       </c>
-      <c r="S38" s="3">
+      <c r="S38" s="5">
         <v>3.6383263170000002</v>
       </c>
-      <c r="T38" s="3" t="s">
+      <c r="T38" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
         <v>799</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="B39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" s="3">
+      <c r="E39" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="5">
         <v>147</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="5">
         <v>238</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="5">
         <v>47</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="J39" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="K39" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="L39" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M39" s="4">
+      <c r="M39" s="6">
         <v>43689</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="N39" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="O39" s="3">
+      <c r="O39" s="5">
         <v>-24.048745220000001</v>
       </c>
-      <c r="P39" s="3">
+      <c r="P39" s="5">
         <v>49.353448210000003</v>
       </c>
-      <c r="Q39" s="3">
+      <c r="Q39" s="5">
         <v>12.74130587</v>
       </c>
-      <c r="R39" s="3">
+      <c r="R39" s="5">
         <v>14.41409494</v>
       </c>
-      <c r="S39" s="3">
+      <c r="S39" s="5">
         <v>3.4239713570000001</v>
       </c>
-      <c r="T39" s="3" t="s">
+      <c r="T39" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
         <v>800</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="B40" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F40" s="3">
+      <c r="E40" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="5">
         <v>156</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="5">
         <v>145</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="5">
         <v>48</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="J40" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="K40" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="L40" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M40" s="4">
+      <c r="M40" s="6">
         <v>43689</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="N40" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O40" s="3">
+      <c r="O40" s="5">
         <v>-23.199938060000001</v>
       </c>
-      <c r="P40" s="3">
+      <c r="P40" s="5">
         <v>46.958182299999997</v>
       </c>
-      <c r="Q40" s="3">
+      <c r="Q40" s="5">
         <v>13.32790164</v>
       </c>
-      <c r="R40" s="3">
+      <c r="R40" s="5">
         <v>14.26518907</v>
       </c>
-      <c r="S40" s="3">
+      <c r="S40" s="5">
         <v>3.2918023079999998</v>
       </c>
-      <c r="T40" s="3" t="s">
+      <c r="T40" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
         <v>801</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="B41" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F41" s="3" t="s">
+      <c r="E41" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="J41" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="K41" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="L41" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M41" s="4">
+      <c r="M41" s="6">
         <v>43689</v>
       </c>
-      <c r="N41" s="3" t="s">
+      <c r="N41" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="5">
         <v>-23.750301650000001</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="5">
         <v>47.341653639999997</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="5">
         <v>12.46836497</v>
       </c>
-      <c r="R41" s="3">
+      <c r="R41" s="5">
         <v>13.628827510000001</v>
       </c>
-      <c r="S41" s="3">
+      <c r="S41" s="5">
         <v>3.4736409730000002</v>
       </c>
-      <c r="T41" s="3" t="s">
+      <c r="T41" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
         <v>857</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F42" s="3">
+      <c r="E42" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="5">
         <v>68</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="5">
         <v>4</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="J42" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="K42" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="L42" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M42" s="4">
+      <c r="M42" s="6">
         <v>43690</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="N42" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42" s="5">
         <v>-23.99557239</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42" s="5">
         <v>45.834344119999997</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="5">
         <v>12.90011838</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42" s="5">
         <v>13.68383482</v>
       </c>
-      <c r="S42" s="3">
+      <c r="S42" s="5">
         <v>3.3495248009999998</v>
       </c>
-      <c r="T42" s="3" t="s">
+      <c r="T42" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
         <v>858</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="B43" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="E43" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="5">
         <v>70</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="5">
         <v>4</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="J43" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="K43" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="L43" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M43" s="4">
+      <c r="M43" s="6">
         <v>43690</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="N43" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O43" s="5">
         <v>-23.983607960000001</v>
       </c>
-      <c r="P43" s="3">
+      <c r="P43" s="5">
         <v>45.891883290000003</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="5">
         <v>12.33139493</v>
       </c>
-      <c r="R43" s="3">
+      <c r="R43" s="5">
         <v>14.02760546</v>
       </c>
-      <c r="S43" s="3">
+      <c r="S43" s="5">
         <v>3.2715407779999999</v>
       </c>
-      <c r="T43" s="3" t="s">
+      <c r="T43" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>595</v>
       </c>
@@ -3742,7 +3830,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>596</v>
       </c>
@@ -3804,7 +3892,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>859</v>
       </c>
@@ -3860,7 +3948,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>860</v>
       </c>
@@ -3916,7 +4004,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>863</v>
       </c>
@@ -3972,7 +4060,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>865</v>
       </c>
@@ -4028,7 +4116,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>866</v>
       </c>
@@ -4084,7 +4172,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>597</v>
       </c>
@@ -4146,7 +4234,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>598</v>
       </c>
@@ -4208,7 +4296,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>599</v>
       </c>
@@ -4270,7 +4358,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>664</v>
       </c>
@@ -4326,7 +4414,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>915</v>
       </c>
@@ -4382,7 +4470,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>916</v>
       </c>
@@ -4438,7 +4526,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>310</v>
       </c>
@@ -4497,7 +4585,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>917</v>
       </c>
@@ -4553,7 +4641,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>401</v>
       </c>
@@ -4609,7 +4697,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>402</v>
       </c>
@@ -4665,7 +4753,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>427</v>
       </c>
@@ -4724,7 +4812,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>428</v>
       </c>
@@ -4783,7 +4871,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>429</v>
       </c>
@@ -4842,7 +4930,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>438</v>
       </c>
@@ -4901,7 +4989,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:25" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>439</v>
       </c>
@@ -4960,7 +5048,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:25" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>455</v>
       </c>
@@ -5019,7 +5107,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:25" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>465</v>
       </c>
@@ -5078,7 +5166,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:25" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>466</v>
       </c>
@@ -5137,7 +5225,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:25" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>476</v>
       </c>
@@ -5196,547 +5284,558 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A70" s="3">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A70" s="5">
         <v>762</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C70" s="3" t="s">
+      <c r="B70" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E70" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F70" s="3">
+      <c r="E70" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F70" s="5">
         <v>179</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G70" s="5">
         <v>169</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H70" s="5">
         <v>74</v>
       </c>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3" t="s">
+      <c r="J70" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="K70" s="3" t="s">
+      <c r="K70" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L70" s="3" t="s">
+      <c r="L70" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M70" s="4">
+      <c r="M70" s="6">
         <v>43689</v>
       </c>
-      <c r="N70" s="3" t="s">
+      <c r="N70" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="O70" s="3">
+      <c r="O70" s="5">
         <v>-23.325142140000001</v>
       </c>
-      <c r="P70" s="3">
+      <c r="P70" s="5">
         <v>46.129466020000002</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="Q70" s="5">
         <v>14.255814640000001</v>
       </c>
-      <c r="R70" s="3">
+      <c r="R70" s="5">
         <v>14.09803449</v>
       </c>
-      <c r="S70" s="3">
+      <c r="S70" s="5">
         <v>3.272049451</v>
       </c>
-      <c r="T70" s="3" t="s">
+      <c r="T70" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A71" s="3">
+      <c r="U70" s="5">
+        <f>AVERAGE(P70:P82)</f>
+        <v>44.849519902307684</v>
+      </c>
+      <c r="V70" s="5">
+        <f>AVERAGE(R70:R82)</f>
+        <v>13.606231183461539</v>
+      </c>
+      <c r="W70" s="5">
+        <f>AVERAGE(S70:S82)</f>
+        <v>3.2911418164615389</v>
+      </c>
+      <c r="X70" s="5">
+        <f>AVERAGE(O70:O82)</f>
+        <v>-22.957768973076927</v>
+      </c>
+      <c r="Y70" s="5">
+        <f>AVERAGE(Q70:Q82)</f>
+        <v>13.280494286923076</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A71" s="5">
         <v>763</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C71" s="3" t="s">
+      <c r="B71" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E71" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F71" s="3">
+      <c r="E71" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F71" s="5">
         <v>200</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G71" s="5">
         <v>188</v>
       </c>
-      <c r="H71" s="3">
+      <c r="H71" s="5">
         <v>125</v>
       </c>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3" t="s">
+      <c r="J71" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="K71" s="3" t="s">
+      <c r="K71" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L71" s="3" t="s">
+      <c r="L71" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M71" s="4">
+      <c r="M71" s="6">
         <v>43689</v>
       </c>
-      <c r="N71" s="3" t="s">
+      <c r="N71" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="O71" s="3">
+      <c r="O71" s="5">
         <v>-23.20305273</v>
       </c>
-      <c r="P71" s="3">
+      <c r="P71" s="5">
         <v>45.948652680000002</v>
       </c>
-      <c r="Q71" s="3">
+      <c r="Q71" s="5">
         <v>14.546726120000001</v>
       </c>
-      <c r="R71" s="3">
+      <c r="R71" s="5">
         <v>14.0645959</v>
       </c>
-      <c r="S71" s="3">
+      <c r="S71" s="5">
         <v>3.2669728309999999</v>
       </c>
-      <c r="T71" s="3" t="s">
+      <c r="T71" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A72" s="3">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A72" s="5">
         <v>764</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C72" s="3" t="s">
+      <c r="B72" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F72" s="3">
+      <c r="E72" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F72" s="5">
         <v>183</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="5">
         <v>174</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="5">
         <v>88</v>
       </c>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3" t="s">
+      <c r="J72" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="K72" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L72" s="3" t="s">
+      <c r="L72" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M72" s="4">
+      <c r="M72" s="6">
         <v>43689</v>
       </c>
-      <c r="N72" s="3" t="s">
+      <c r="N72" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="5">
         <v>-23.27154191</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="5">
         <v>47.342575619999998</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="5">
         <v>15.07252897</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="5">
         <v>13.94331094</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="5">
         <v>3.395361104</v>
       </c>
-      <c r="T72" s="3" t="s">
+      <c r="T72" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A73" s="3">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A73" s="5">
         <v>765</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C73" s="3" t="s">
+      <c r="B73" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E73" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F73" s="3">
+      <c r="E73" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F73" s="5">
         <v>178</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G73" s="5">
         <v>169</v>
       </c>
-      <c r="H73" s="3">
+      <c r="H73" s="5">
         <v>76</v>
       </c>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3" t="s">
+      <c r="J73" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="K73" s="3" t="s">
+      <c r="K73" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L73" s="3" t="s">
+      <c r="L73" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M73" s="4">
+      <c r="M73" s="6">
         <v>43689</v>
       </c>
-      <c r="N73" s="3" t="s">
+      <c r="N73" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="O73" s="3">
+      <c r="O73" s="5">
         <v>-23.3688164</v>
       </c>
-      <c r="P73" s="3">
+      <c r="P73" s="5">
         <v>46.007942489999998</v>
       </c>
-      <c r="Q73" s="3">
+      <c r="Q73" s="5">
         <v>13.41453008</v>
       </c>
-      <c r="R73" s="3">
+      <c r="R73" s="5">
         <v>14.018046999999999</v>
       </c>
-      <c r="S73" s="3">
+      <c r="S73" s="5">
         <v>3.2820508089999998</v>
       </c>
-      <c r="T73" s="3" t="s">
+      <c r="T73" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A74" s="3">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A74" s="5">
         <v>924</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C74" s="3" t="s">
+      <c r="B74" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E74" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F74" s="3">
+      <c r="E74" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F74" s="5">
         <v>62</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="G74" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H74" s="3">
+      <c r="H74" s="5">
         <v>2</v>
       </c>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3" t="s">
+      <c r="J74" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K74" s="3" t="s">
+      <c r="K74" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L74" s="3" t="s">
+      <c r="L74" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M74" s="4">
+      <c r="M74" s="6">
         <v>43690</v>
       </c>
-      <c r="N74" s="3" t="s">
+      <c r="N74" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="O74" s="3">
+      <c r="O74" s="5">
         <v>-23.939678600000001</v>
       </c>
-      <c r="P74" s="3">
+      <c r="P74" s="5">
         <v>47.670220700000002</v>
       </c>
-      <c r="Q74" s="3">
+      <c r="Q74" s="5">
         <v>11.638315739999999</v>
       </c>
-      <c r="R74" s="3">
+      <c r="R74" s="5">
         <v>14.34697708</v>
       </c>
-      <c r="S74" s="3">
+      <c r="S74" s="5">
         <v>3.3226665400000002</v>
       </c>
-      <c r="T74" s="3" t="s">
+      <c r="T74" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A75" s="3">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A75" s="5">
         <v>925</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C75" s="3" t="s">
+      <c r="B75" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E75" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F75" s="3">
+      <c r="E75" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F75" s="5">
         <v>65</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="G75" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H75" s="3">
+      <c r="H75" s="5">
         <v>3</v>
       </c>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3" t="s">
+      <c r="J75" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K75" s="3" t="s">
+      <c r="K75" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L75" s="3" t="s">
+      <c r="L75" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M75" s="4">
+      <c r="M75" s="6">
         <v>43690</v>
       </c>
-      <c r="N75" s="3" t="s">
+      <c r="N75" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="O75" s="3">
+      <c r="O75" s="5">
         <v>-23.81366439</v>
       </c>
-      <c r="P75" s="3">
+      <c r="P75" s="5">
         <v>45.028628789999999</v>
       </c>
-      <c r="Q75" s="3">
+      <c r="Q75" s="5">
         <v>12.71220741</v>
       </c>
-      <c r="R75" s="3">
+      <c r="R75" s="5">
         <v>12.763345879999999</v>
       </c>
-      <c r="S75" s="3">
+      <c r="S75" s="5">
         <v>3.527964313</v>
       </c>
-      <c r="T75" s="3" t="s">
+      <c r="T75" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A76" s="3">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A76" s="5">
         <v>926</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C76" s="3" t="s">
+      <c r="B76" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F76" s="3">
+      <c r="E76" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F76" s="5">
         <v>61</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="G76" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H76" s="5">
         <v>2</v>
       </c>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3" t="s">
+      <c r="J76" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K76" s="3" t="s">
+      <c r="K76" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L76" s="3" t="s">
+      <c r="L76" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M76" s="4">
+      <c r="M76" s="6">
         <v>43690</v>
       </c>
-      <c r="N76" s="3" t="s">
+      <c r="N76" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="O76" s="3">
+      <c r="O76" s="5">
         <v>-24.05477819</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P76" s="5">
         <v>47.183808130000003</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="5">
         <v>12.43806427</v>
       </c>
-      <c r="R76" s="3">
+      <c r="R76" s="5">
         <v>13.995686040000001</v>
       </c>
-      <c r="S76" s="3">
+      <c r="S76" s="5">
         <v>3.3713108439999999</v>
       </c>
-      <c r="T76" s="3" t="s">
+      <c r="T76" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A77" s="3">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A77" s="5">
         <v>927</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C77" s="3" t="s">
+      <c r="B77" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F77" s="3">
+      <c r="E77" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F77" s="5">
         <v>59</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="G77" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H77" s="3">
+      <c r="H77" s="5">
         <v>2</v>
       </c>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3" t="s">
+      <c r="J77" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K77" s="3" t="s">
+      <c r="K77" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L77" s="3" t="s">
+      <c r="L77" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M77" s="4">
+      <c r="M77" s="6">
         <v>43690</v>
       </c>
-      <c r="N77" s="3" t="s">
+      <c r="N77" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="O77" s="3">
+      <c r="O77" s="5">
         <v>-23.886097759999998</v>
       </c>
-      <c r="P77" s="3">
+      <c r="P77" s="5">
         <v>46.820824039999998</v>
       </c>
-      <c r="Q77" s="3">
+      <c r="Q77" s="5">
         <v>12.58401098</v>
       </c>
-      <c r="R77" s="3">
+      <c r="R77" s="5">
         <v>14.28768788</v>
       </c>
-      <c r="S77" s="3">
+      <c r="S77" s="5">
         <v>3.2770049609999998</v>
       </c>
-      <c r="T77" s="3" t="s">
+      <c r="T77" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A78" s="3">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A78" s="5">
         <v>928</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C78" s="3" t="s">
+      <c r="B78" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E78" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F78" s="3">
+      <c r="E78" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F78" s="5">
         <v>66</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="G78" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H78" s="3">
+      <c r="H78" s="5">
         <v>3</v>
       </c>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3" t="s">
+      <c r="J78" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K78" s="3" t="s">
+      <c r="K78" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L78" s="3" t="s">
+      <c r="L78" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M78" s="4">
+      <c r="M78" s="6">
         <v>43690</v>
       </c>
-      <c r="N78" s="3" t="s">
+      <c r="N78" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="O78" s="3">
+      <c r="O78" s="5">
         <v>-23.667805430000001</v>
       </c>
-      <c r="P78" s="3">
+      <c r="P78" s="5">
         <v>46.89896452</v>
       </c>
-      <c r="Q78" s="3">
+      <c r="Q78" s="5">
         <v>11.608731949999999</v>
       </c>
-      <c r="R78" s="3">
+      <c r="R78" s="5">
         <v>14.184562039999999</v>
       </c>
-      <c r="S78" s="3">
+      <c r="S78" s="5">
         <v>3.306338566</v>
       </c>
-      <c r="T78" s="3" t="s">
+      <c r="T78" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:25" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>410</v>
       </c>
@@ -5795,7 +5894,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:25" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>411</v>
       </c>
@@ -5854,7 +5953,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>897</v>
       </c>
@@ -5910,7 +6009,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>898</v>
       </c>
@@ -5966,7 +6065,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>899</v>
       </c>
@@ -6022,7 +6121,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="84" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>900</v>
       </c>
@@ -6078,7 +6177,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>412</v>
       </c>
@@ -6134,7 +6233,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>413</v>
       </c>
@@ -6190,7 +6289,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>414</v>
       </c>
